--- a/ProductBackLog.xlsx
+++ b/ProductBackLog.xlsx
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1736,7 @@
         <v>8</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>8</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>8</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1960,7 +1960,7 @@
         <v>8</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -1988,7 +1988,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
